--- a/genshin/461104261521481829_2020-11-24_14-00-02.xlsx
+++ b/genshin/461104261521481829_2020-11-24_14-00-02.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -565,10 +581,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2020-12-17 17:07:49</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44182.71376157407</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -632,10 +646,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2020-12-12 01:46:09</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44177.07371527778</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -711,10 +723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2020-12-10 01:38:31</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44175.06841435185</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -790,10 +800,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2020-12-06 17:42:37</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44171.73792824074</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -865,10 +873,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2020-12-06 12:49:40</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44171.53449074074</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -944,10 +950,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2020-11-29 23:11:27</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44164.96628472222</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1015,10 +1019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2020-11-27 13:15:23</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44162.55234953704</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1094,10 +1096,8 @@
           <t>3742207734</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2020-11-26 19:02:01</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44161.79306712963</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1165,10 +1165,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2020-11-26 06:19:05</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44161.26325231481</v>
       </c>
       <c r="I10" t="n">
         <v>1</v>
@@ -1242,10 +1240,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:26:51</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44160.8103125</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1321,10 +1317,8 @@
           <t>3745911874</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2020-11-25 19:23:47</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44160.80818287037</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1400,10 +1394,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2020-11-25 18:01:10</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44160.75081018519</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1463,10 +1455,8 @@
           <t>3742067724</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:11:51</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44160.67489583333</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1526,10 +1516,8 @@
           <t>3745283153</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2020-11-25 16:09:10</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44160.67303240741</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1605,10 +1593,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:29:51</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44160.6040625</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1684,10 +1670,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2020-11-25 14:02:56</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44160.58537037037</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1751,10 +1735,8 @@
           <t>3744978536</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:51:06</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44160.57715277778</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1818,10 +1800,8 @@
           <t>3742067724</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:49:36</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44160.57611111111</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1885,10 +1865,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:43:07</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44160.57160879629</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1952,10 +1930,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2020-11-25 13:07:15</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44160.54670138889</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
@@ -2023,10 +1999,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:57:57</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44160.54024305556</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2102,10 +2076,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:15:00</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44160.51041666666</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2181,10 +2153,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2020-11-25 12:04:04</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44160.50282407407</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2244,10 +2214,8 @@
           <t>3744511774</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2020-11-25 11:09:45</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44160.46510416667</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2311,10 +2279,8 @@
           <t>3744510407</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2020-11-25 11:07:58</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44160.46386574074</v>
       </c>
       <c r="I26" t="n">
         <v>1</v>
@@ -2391,10 +2357,8 @@
           <t>3744500164</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2020-11-25 11:05:44</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44160.46231481482</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2471,10 +2435,8 @@
           <t>3744500164</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2020-11-25 11:04:27</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44160.46142361111</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2551,10 +2513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2020-11-25 11:03:52</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44160.46101851852</v>
       </c>
       <c r="I29" t="n">
         <v>4</v>
@@ -2631,10 +2591,8 @@
           <t>3744394049</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2020-11-25 10:19:48</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44160.43041666667</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2702,10 +2660,8 @@
           <t>3744378807</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2020-11-25 10:12:29</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44160.42533564815</v>
       </c>
       <c r="I31" t="n">
         <v>1</v>
@@ -2784,10 +2740,8 @@
           <t>3744368384</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2020-11-25 10:05:52</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44160.42074074074</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2855,10 +2809,8 @@
           <t>3744267185</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2020-11-25 10:04:36</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44160.41986111111</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -2926,10 +2878,8 @@
           <t>3744361571</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2020-11-25 10:02:15</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44160.41822916667</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2997,10 +2947,8 @@
           <t>3744357848</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2020-11-25 10:00:17</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44160.41686342593</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3068,10 +3016,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2020-11-25 09:49:15</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44160.40920138889</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3135,10 +3081,8 @@
           <t>3744277305</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2020-11-25 09:40:33</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44160.40315972222</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3202,10 +3146,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2020-11-25 09:26:36</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44160.39347222223</v>
       </c>
       <c r="I38" t="n">
         <v>3</v>
@@ -3273,10 +3215,8 @@
           <t>3744277305</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2020-11-25 09:17:10</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44160.3869212963</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3355,10 +3295,8 @@
           <t>3744267185</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2020-11-25 09:10:46</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44160.38247685185</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3426,10 +3364,8 @@
           <t>3744266123</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2020-11-25 09:09:03</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44160.38128472222</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3497,10 +3433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2020-11-25 09:05:36</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44160.37888888889</v>
       </c>
       <c r="I42" t="n">
         <v>5</v>
@@ -3564,10 +3498,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2020-11-25 09:01:27</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44160.37600694445</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3639,10 +3571,8 @@
           <t>3744165690</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2020-11-25 08:58:22</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44160.37386574074</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3708,10 +3638,8 @@
           <t>3744212297</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2020-11-25 08:39:10</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44160.36053240741</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -3787,10 +3715,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2020-11-25 08:19:12</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44160.34666666666</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -3866,10 +3792,8 @@
           <t>3744165690</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2020-11-25 08:01:55</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44160.33466435185</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3933,10 +3857,8 @@
           <t>3742067724</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2020-11-25 08:00:43</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44160.33383101852</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4013,10 +3935,8 @@
           <t>3742067724</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2020-11-25 07:57:21</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44160.33149305556</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4093,10 +4013,8 @@
           <t>3744131923</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2020-11-25 07:35:41</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44160.31644675926</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
@@ -4172,10 +4090,8 @@
           <t>3744131272</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2020-11-25 07:33:41</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44160.31505787037</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4251,10 +4167,8 @@
           <t>3744119248</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2020-11-25 07:27:12</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44160.31055555555</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4332,10 +4246,8 @@
           <t>3741818480</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2020-11-25 07:23:22</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44160.30789351852</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4407,10 +4319,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2020-11-25 07:16:06</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44160.30284722222</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4474,10 +4384,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2020-11-25 07:14:49</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44160.30195601852</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4545,10 +4453,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2020-11-25 07:07:13</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44160.29667824074</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
@@ -4620,10 +4526,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2020-11-25 06:36:12</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44160.27513888889</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4691,10 +4595,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2020-11-25 05:35:12</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44160.23277777778</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4758,10 +4660,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2020-11-25 04:58:42</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44160.20743055556</v>
       </c>
       <c r="I59" t="n">
         <v>1</v>
@@ -4833,10 +4733,8 @@
           <t>3743808835</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2020-11-25 04:29:15</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44160.18697916667</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4900,10 +4798,8 @@
           <t>3743808835</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2020-11-25 04:27:17</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44160.18561342593</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4967,10 +4863,8 @@
           <t>3741937151</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2020-11-25 03:32:27</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44160.14753472222</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5042,10 +4936,8 @@
           <t>3743989038</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2020-11-25 02:58:10</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44160.12372685185</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
@@ -5113,10 +5005,8 @@
           <t>3743983422</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2020-11-25 02:54:53</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44160.12144675926</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5184,10 +5074,8 @@
           <t>3743986462</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2020-11-25 02:47:40</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44160.11643518518</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
@@ -5255,10 +5143,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2020-11-25 02:20:40</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44160.09768518519</v>
       </c>
       <c r="I66" t="n">
         <v>1</v>
@@ -5334,10 +5220,8 @@
           <t>3741915041</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2020-11-25 02:19:18</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44160.09673611111</v>
       </c>
       <c r="I67" t="n">
         <v>2</v>
@@ -5405,10 +5289,8 @@
           <t>3743886004</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2020-11-25 01:23:15</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44160.0578125</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
@@ -5476,10 +5358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2020-11-25 01:15:31</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44160.05244212963</v>
       </c>
       <c r="I69" t="n">
         <v>1</v>
@@ -5555,10 +5435,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2020-11-25 01:11:05</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44160.04936342593</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5630,10 +5508,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2020-11-25 01:06:48</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44160.04638888889</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
@@ -5697,10 +5573,8 @@
           <t>3743846658</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2020-11-25 01:03:10</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44160.04386574074</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5776,10 +5650,8 @@
           <t>3743808835</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:48:58</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44160.03400462963</v>
       </c>
       <c r="I73" t="n">
         <v>4</v>
@@ -5855,10 +5727,8 @@
           <t>3743811789</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:48:08</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44160.03342592593</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
@@ -5936,10 +5806,8 @@
           <t>3743807034</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:46:38</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44160.03238425926</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
@@ -6015,10 +5883,8 @@
           <t>3741737475</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:40:29</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44160.02811342593</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6094,10 +5960,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:37:17</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44160.0258912037</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6173,10 +6037,8 @@
           <t>3743785387</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:36:41</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44160.02547453704</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6244,10 +6106,8 @@
           <t>3743774813</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:36:06</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44160.02506944445</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6315,10 +6175,8 @@
           <t>3743772726</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:33:57</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44160.02357638889</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
@@ -6394,10 +6252,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:31:24</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44160.02180555555</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6466,10 +6322,8 @@
           <t>3743749227</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:26:59</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44160.01873842593</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6541,10 +6395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:14:19</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44160.00994212963</v>
       </c>
       <c r="I83" t="n">
         <v>1</v>
@@ -6608,10 +6460,8 @@
           <t>3743706378</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:11:57</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44160.00829861111</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6675,10 +6525,8 @@
           <t>3743690093</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2020-11-25 00:06:18</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44160.004375</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6746,10 +6594,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2020-11-24 23:57:31</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44159.99827546296</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
@@ -6821,10 +6667,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2020-11-24 23:29:03</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44159.97850694445</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
@@ -6896,10 +6740,8 @@
           <t>3743538115</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2020-11-24 23:27:10</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44159.97719907408</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6967,10 +6809,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2020-11-24 23:06:45</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44159.96302083333</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
@@ -7046,10 +6886,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2020-11-24 23:05:55</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44159.96244212963</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
@@ -7117,10 +6955,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:59:37</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44159.95806712963</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
@@ -7184,10 +7020,8 @@
           <t>3743087719</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:56:03</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44159.95559027778</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7251,10 +7085,8 @@
           <t>3743408865</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:55:56</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44159.95550925926</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
@@ -7318,10 +7150,8 @@
           <t>3741786765</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:50:07</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44159.95146990741</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7393,10 +7223,8 @@
           <t>3743305705</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:30:49</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44159.93806712963</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
@@ -7460,10 +7288,8 @@
           <t>3742391988</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:27:41</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44159.93589120371</v>
       </c>
       <c r="I96" t="n">
         <v>1</v>
@@ -7539,10 +7365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:24:47</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44159.93387731481</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7606,10 +7430,8 @@
           <t>3743245665</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:16:09</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44159.92788194444</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7673,10 +7495,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:09:13</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44159.92306712963</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7748,10 +7568,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:07:42</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44159.92201388889</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7815,10 +7633,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:04:47</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44159.91998842593</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7886,10 +7702,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2020-11-24 22:02:39</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44159.91850694444</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
@@ -7957,10 +7771,8 @@
           <t>3743158933</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2020-11-24 21:55:46</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44159.91372685185</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
@@ -8028,10 +7840,8 @@
           <t>3743087719</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2020-11-24 21:36:06</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44159.90006944445</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
@@ -8103,10 +7913,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2020-11-24 21:34:06</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44159.89868055555</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8175,10 +7983,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2020-11-24 21:26:21</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44159.89329861111</v>
       </c>
       <c r="I106" t="n">
         <v>2</v>
@@ -8254,10 +8060,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2020-11-24 21:00:17</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44159.87519675926</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8321,10 +8125,8 @@
           <t>3742933449</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:54:44</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44159.8713425926</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8388,10 +8190,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:52:24</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44159.86972222223</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
@@ -8455,10 +8255,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:44:06</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44159.86395833334</v>
       </c>
       <c r="I110" t="n">
         <v>1</v>
@@ -8526,10 +8324,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:34:57</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44159.85760416667</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
@@ -8593,10 +8389,8 @@
           <t>3742859439</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:34:14</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44159.85710648148</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8672,10 +8466,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:32:57</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44159.85621527778</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
@@ -8739,10 +8531,8 @@
           <t>3741786765</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:24:34</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44159.85039351852</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8824,10 +8614,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:17:56</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44159.84578703704</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8903,10 +8691,8 @@
           <t>3741786765</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:09:16</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44159.83976851852</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -8974,10 +8760,8 @@
           <t>3742775884</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:08:10</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44159.83900462963</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
@@ -9053,10 +8837,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:06:19</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44159.83771990741</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
@@ -9132,10 +8914,8 @@
           <t>3741818480</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:06:13</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44159.83765046296</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9211,10 +8991,8 @@
           <t>3741786765</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:04:43</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44159.83660879629</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
@@ -9286,10 +9064,8 @@
           <t>3742150640</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:03:42</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44159.83590277778</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9353,10 +9129,8 @@
           <t>3742743626</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:01:36</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44159.83444444444</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
@@ -9424,10 +9198,8 @@
           <t>3742747346</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2020-11-24 20:01:13</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44159.83417824074</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9491,10 +9263,8 @@
           <t>3741730063</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:59:39</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44159.83309027777</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9558,10 +9328,8 @@
           <t>3742737991</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:59:12</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44159.83277777778</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
@@ -9625,10 +9393,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:57:46</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44159.8317824074</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9688,10 +9454,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:56:20</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44159.83078703703</v>
       </c>
       <c r="I127" t="n">
         <v>1</v>
@@ -9763,10 +9527,8 @@
           <t>3741818480</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:54:57</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44159.82982638889</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9826,10 +9588,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:51:49</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44159.82765046296</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -9893,10 +9653,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:48:25</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44159.82528935185</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -9956,10 +9714,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:37:16</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44159.8175462963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10027,10 +9783,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:30:05</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44159.81255787037</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10106,10 +9860,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:22:40</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44159.80740740741</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10177,10 +9929,8 @@
           <t>3742594325</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:20:28</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44159.80587962963</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
@@ -10257,10 +10007,8 @@
           <t>3741910439</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:19:45</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44159.80538194445</v>
       </c>
       <c r="I135" t="n">
         <v>1</v>
@@ -10336,10 +10084,8 @@
           <t>3742592998</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:19:24</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44159.80513888889</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10403,10 +10149,8 @@
           <t>3742537085</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:03:52</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44159.79435185185</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10483,10 +10227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:02:35</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44159.79346064815</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10550,10 +10292,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:00:53</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44159.7922800926</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
@@ -10617,10 +10357,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2020-11-24 19:00:44</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44159.79217592593</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
@@ -10692,10 +10430,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:57:31</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44159.78994212963</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
@@ -10767,10 +10503,8 @@
           <t>3742494403</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:54:00</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44159.7875</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10834,10 +10568,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:45:40</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44159.78171296296</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -10909,10 +10641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:43:06</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44159.77993055555</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -10989,10 +10719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:34:38</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44159.77405092592</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
@@ -11052,10 +10780,8 @@
           <t>3742400826</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:27:46</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44159.7692824074</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
@@ -11131,10 +10857,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:27:33</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44159.76913194444</v>
       </c>
       <c r="I147" t="n">
         <v>2</v>
@@ -11202,10 +10926,8 @@
           <t>3742393038</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:25:55</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44159.76799768519</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11273,10 +10995,8 @@
           <t>3742391988</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:25:07</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44159.76744212963</v>
       </c>
       <c r="I149" t="n">
         <v>8</v>
@@ -11352,10 +11072,8 @@
           <t>3742380778</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:21:46</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44159.76511574074</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
@@ -11427,10 +11145,8 @@
           <t>3742376599</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:20:48</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44159.76444444444</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
@@ -11494,10 +11210,8 @@
           <t>3742354600</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:16:47</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44159.7616550926</v>
       </c>
       <c r="I152" t="n">
         <v>1</v>
@@ -11561,10 +11275,8 @@
           <t>3742150640</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:11:18</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44159.75784722222</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
@@ -11636,10 +11348,8 @@
           <t>3742336797</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:10:32</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44159.75731481481</v>
       </c>
       <c r="I154" t="n">
         <v>2</v>
@@ -11699,10 +11409,8 @@
           <t>3741937151</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:09:33</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44159.75663194444</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11778,10 +11486,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:09:05</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44159.75630787037</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
@@ -11849,10 +11555,8 @@
           <t>3742324912</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:09:01</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44159.75626157408</v>
       </c>
       <c r="I157" t="n">
         <v>1</v>
@@ -11928,10 +11632,8 @@
           <t>3742327074</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:08:52</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44159.75615740741</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
@@ -12003,10 +11705,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:07:05</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44159.75491898148</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
@@ -12078,10 +11778,8 @@
           <t>3742067724</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:04:22</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44159.75303240741</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12141,10 +11839,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:04:18</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44159.75298611111</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12216,10 +11912,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:04:02</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44159.75280092593</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
@@ -12295,10 +11989,8 @@
           <t>3742308577</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:03:56</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44159.75273148148</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12370,10 +12062,8 @@
           <t>3742303931</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:02:19</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44159.75160879629</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12445,10 +12135,8 @@
           <t>3742022753</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2020-11-24 18:01:55</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44159.75133101852</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
@@ -12516,10 +12204,8 @@
           <t>3742282612</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:56:46</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44159.74775462963</v>
       </c>
       <c r="I166" t="n">
         <v>1</v>
@@ -12587,10 +12273,8 @@
           <t>3741960414</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:55:31</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44159.74688657407</v>
       </c>
       <c r="I167" t="n">
         <v>1</v>
@@ -12662,10 +12346,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:53:44</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44159.74564814815</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
@@ -12733,10 +12415,8 @@
           <t>3742268066</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:52:48</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44159.745</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12804,10 +12484,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:52:44</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44159.7449537037</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -12875,10 +12553,8 @@
           <t>3741818480</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:50:46</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44159.74358796296</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -12942,10 +12618,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:48:40</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44159.74212962963</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
@@ -13009,10 +12683,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:48:16</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44159.74185185185</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
@@ -13088,10 +12760,8 @@
           <t>3742255864</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:46:42</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44159.74076388889</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13155,10 +12825,8 @@
           <t>3741937151</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:42:51</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44159.73809027778</v>
       </c>
       <c r="I175" t="n">
         <v>1</v>
@@ -13234,10 +12902,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:39:14</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44159.7355787037</v>
       </c>
       <c r="I176" t="n">
         <v>74</v>
@@ -13313,10 +12979,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:37:10</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44159.73414351852</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13380,10 +13044,8 @@
           <t>3742150640</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:35:47</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44159.73318287037</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
@@ -13459,10 +13121,8 @@
           <t>3742207734</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:34:02</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44159.73196759259</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13538,10 +13198,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:30:46</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44159.72969907407</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13613,10 +13271,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:30:32</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44159.72953703703</v>
       </c>
       <c r="I181" t="n">
         <v>3</v>
@@ -13680,10 +13336,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:29:19</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44159.72869212963</v>
       </c>
       <c r="I182" t="n">
         <v>2</v>
@@ -13759,10 +13413,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:29:03</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44159.72850694445</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -13838,10 +13490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:27:14</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44159.72724537037</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
@@ -13909,10 +13559,8 @@
           <t>3742183920</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:26:00</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44159.72638888889</v>
       </c>
       <c r="I185" t="n">
         <v>1</v>
@@ -13972,10 +13620,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:25:49</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44159.72626157408</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
@@ -14051,10 +13697,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:22:24</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44159.72388888889</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14122,10 +13766,8 @@
           <t>3742150640</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:19:22</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44159.72178240741</v>
       </c>
       <c r="I188" t="n">
         <v>12</v>
@@ -14197,10 +13839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:16:56</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44159.72009259259</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14276,10 +13916,8 @@
           <t>3742160383</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:16:45</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44159.71996527778</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
@@ -14343,10 +13981,8 @@
           <t>3742150640</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:12:31</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44159.71702546296</v>
       </c>
       <c r="I191" t="n">
         <v>3</v>
@@ -14422,10 +14058,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:11:17</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44159.71616898148</v>
       </c>
       <c r="I192" t="n">
         <v>7</v>
@@ -14490,10 +14124,8 @@
           <t>3742022753</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:10:38</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44159.71571759259</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
@@ -14561,10 +14193,8 @@
           <t>3742141656</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:09:47</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44159.71512731481</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14628,10 +14258,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:04:22</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44159.71136574074</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14707,10 +14335,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:02:12</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44159.70986111111</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -14778,10 +14404,8 @@
           <t>3741736660</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:01:45</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44159.70954861111</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
@@ -14857,10 +14481,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2020-11-24 17:01:38</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44159.70946759259</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -14936,10 +14558,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:58:12</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44159.70708333333</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
@@ -15011,10 +14631,8 @@
           <t>3742043764</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:55:02</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44159.70488425926</v>
       </c>
       <c r="I200" t="n">
         <v>1</v>
@@ -15082,10 +14700,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:52:57</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44159.7034375</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15149,10 +14765,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:52:30</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44159.703125</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
@@ -15220,10 +14834,8 @@
           <t>3742084533</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:51:23</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44159.70234953704</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
@@ -15287,10 +14899,8 @@
           <t>3742084337</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:51:11</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44159.70221064815</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15362,10 +14972,8 @@
           <t>3742074210</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:48:43</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44159.70049768518</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15441,10 +15049,8 @@
           <t>3741775637</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:48:21</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44159.70024305556</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15516,10 +15122,8 @@
           <t>3742078737</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:48:16</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44159.70018518518</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
@@ -15595,10 +15199,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:47:43</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44159.69980324074</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15666,10 +15268,8 @@
           <t>3741982563</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:46:01</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44159.69862268519</v>
       </c>
       <c r="I209" t="n">
         <v>3</v>
@@ -15737,10 +15337,8 @@
           <t>3742076534</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:45:50</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44159.69849537037</v>
       </c>
       <c r="I210" t="n">
         <v>1</v>
@@ -15816,10 +15414,8 @@
           <t>3742064865</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:43:59</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44159.69721064815</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -15887,10 +15483,8 @@
           <t>3742067724</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:43:38</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44159.69696759259</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -15954,10 +15548,8 @@
           <t>3742061080</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:39:36</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44159.69416666667</v>
       </c>
       <c r="I213" t="n">
         <v>1</v>
@@ -16029,10 +15621,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:39:35</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44159.69415509259</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
@@ -16100,10 +15690,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:36:00</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44159.69166666667</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16163,10 +15751,8 @@
           <t>3742043764</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:35:45</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44159.69149305556</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
@@ -16234,10 +15820,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:31:59</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44159.68887731482</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
@@ -16305,10 +15889,8 @@
           <t>3742032761</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:29:37</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44159.6872337963</v>
       </c>
       <c r="I218" t="n">
         <v>1</v>
@@ -16385,10 +15967,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:29:36</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44159.68722222222</v>
       </c>
       <c r="I219" t="n">
         <v>1</v>
@@ -16460,10 +16040,8 @@
           <t>3742032650</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:29:29</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44159.68714120371</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16531,10 +16109,8 @@
           <t>3742035380</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:28:49</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44159.68667824074</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16610,10 +16186,8 @@
           <t>3742035261</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:28:41</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44159.68658564815</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
@@ -16681,10 +16255,8 @@
           <t>3742027408</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:27:44</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44159.68592592593</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
@@ -16752,10 +16324,8 @@
           <t>3742027016</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:27:15</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44159.68559027778</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -16825,10 +16395,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:27:15</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44159.68559027778</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
@@ -16900,10 +16468,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:26:51</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44159.6853125</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
@@ -16975,10 +16541,8 @@
           <t>3742022753</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:25:37</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44159.68445601852</v>
       </c>
       <c r="I227" t="n">
         <v>7</v>
@@ -17042,10 +16606,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:25:12</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44159.68416666667</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
@@ -17113,10 +16675,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:24:22</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44159.68358796297</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
@@ -17180,10 +16740,8 @@
           <t>3741937151</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:24:08</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44159.68342592593</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17251,10 +16809,8 @@
           <t>3742020898</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:23:19</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44159.6828587963</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17322,10 +16878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:22:47</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44159.68248842593</v>
       </c>
       <c r="I232" t="n">
         <v>6</v>
@@ -17393,10 +16947,8 @@
           <t>3742020429</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:22:45</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44159.68246527778</v>
       </c>
       <c r="I233" t="n">
         <v>5</v>
@@ -17460,10 +17012,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:22:31</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44159.68230324074</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17531,10 +17081,8 @@
           <t>3741982563</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:22:11</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44159.68207175926</v>
       </c>
       <c r="I235" t="n">
         <v>4</v>
@@ -17600,10 +17148,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:22:10</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44159.68206018519</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
@@ -17675,10 +17221,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:22:03</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44159.68197916666</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -17742,10 +17286,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:21:53</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44159.68186342593</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -17821,10 +17363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:20:12</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44159.68069444445</v>
       </c>
       <c r="I239" t="n">
         <v>1</v>
@@ -17892,10 +17432,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:20:09</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44159.68065972222</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -17967,10 +17505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:19:00</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44159.67986111111</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18046,10 +17582,8 @@
           <t>3742010730</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:18:48</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44159.67972222222</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
@@ -18113,10 +17647,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:18:46</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44159.67969907408</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
@@ -18180,10 +17712,8 @@
           <t>3742010599</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:18:38</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44159.67960648148</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
@@ -18259,10 +17789,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:18:23</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44159.67943287037</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
@@ -18338,10 +17866,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:17:47</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44159.67901620371</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18409,10 +17935,8 @@
           <t>3742005716</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:16:57</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44159.6784375</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
@@ -18476,10 +18000,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:15:54</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44159.67770833334</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18547,10 +18069,8 @@
           <t>3742001297</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:15:33</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44159.67746527777</v>
       </c>
       <c r="I249" t="n">
         <v>2</v>
@@ -18618,10 +18138,8 @@
           <t>3741994142</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:15:05</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44159.67714120371</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
@@ -18697,10 +18215,8 @@
           <t>3741994056</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:14:59</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44159.67707175926</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
@@ -18776,10 +18292,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:12:10</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44159.67511574074</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
@@ -18855,10 +18369,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:11:15</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44159.67447916666</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
@@ -18928,10 +18440,8 @@
           <t>3741881097</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:09:29</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44159.67325231482</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
@@ -19003,10 +18513,8 @@
           <t>3741757515</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:08:21</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44159.67246527778</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19090,10 +18598,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:08:05</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44159.67228009259</v>
       </c>
       <c r="I256" t="n">
         <v>295</v>
@@ -19157,10 +18663,8 @@
           <t>3741982563</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:07:36</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44159.67194444445</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
@@ -19224,10 +18728,8 @@
           <t>3741977529</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:07:02</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44159.67155092592</v>
       </c>
       <c r="I258" t="n">
         <v>1</v>
@@ -19295,10 +18797,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:06:57</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44159.67149305555</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19370,10 +18870,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:06:45</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44159.67135416667</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
@@ -19433,10 +18931,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:05:01</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44159.67015046296</v>
       </c>
       <c r="I261" t="n">
         <v>3</v>
@@ -19512,10 +19008,8 @@
           <t>3741881097</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:04:52</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44159.6700462963</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
@@ -19575,10 +19069,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:04:51</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44159.67003472222</v>
       </c>
       <c r="I263" t="n">
         <v>16</v>
@@ -19646,10 +19138,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:03:45</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44159.66927083334</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
@@ -19715,10 +19205,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2020-11-24 16:00:09</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44159.66677083333</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
@@ -19790,10 +19278,8 @@
           <t>3741881097</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:59:20</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44159.6662037037</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
@@ -19868,10 +19354,8 @@
           <t>3741881097</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:58:26</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44159.6655787037</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
@@ -19943,10 +19427,8 @@
           <t>3741915041</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:58:24</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44159.66555555556</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
@@ -20022,10 +19504,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:58:11</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44159.66540509259</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20097,10 +19577,8 @@
           <t>3741960414</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:57:27</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44159.66489583333</v>
       </c>
       <c r="I270" t="n">
         <v>3</v>
@@ -20172,10 +19650,8 @@
           <t>3741937151</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:56:32</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44159.66425925926</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
@@ -20247,10 +19723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:56:26</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44159.66418981482</v>
       </c>
       <c r="I272" t="n">
         <v>2</v>
@@ -20314,10 +19788,8 @@
           <t>3741949376</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:55:52</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44159.6637962963</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20393,10 +19865,8 @@
           <t>3741949210</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:55:38</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44159.66363425926</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20464,10 +19934,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:55:35</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44159.66359953704</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
@@ -20543,10 +20011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:52:32</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44159.66148148148</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
@@ -20622,10 +20088,8 @@
           <t>3741881097</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:50:04</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44159.65976851852</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
@@ -20687,10 +20151,8 @@
           <t>3741933838</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:47:58</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44159.65831018519</v>
       </c>
       <c r="I278" t="n">
         <v>2</v>
@@ -20754,10 +20216,8 @@
           <t>3741839738</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:47:09</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44159.65774305556</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -20829,10 +20289,8 @@
           <t>3741937151</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:46:52</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44159.65754629629</v>
       </c>
       <c r="I280" t="n">
         <v>98</v>
@@ -20904,10 +20362,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:45:03</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44159.65628472222</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
@@ -20971,10 +20427,8 @@
           <t>3741910439</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:43:18</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44159.65506944444</v>
       </c>
       <c r="I282" t="n">
         <v>7</v>
@@ -21038,10 +20492,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:41:12</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44159.65361111111</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21113,10 +20565,8 @@
           <t>3741917997</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:39:17</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44159.6522800926</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
@@ -21188,10 +20638,8 @@
           <t>3741917450</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:38:28</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44159.65171296296</v>
       </c>
       <c r="I285" t="n">
         <v>3</v>
@@ -21255,10 +20703,8 @@
           <t>3741917300</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:38:15</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44159.6515625</v>
       </c>
       <c r="I286" t="n">
         <v>1</v>
@@ -21326,10 +20772,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:37:05</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44159.65075231482</v>
       </c>
       <c r="I287" t="n">
         <v>1</v>
@@ -21393,10 +20837,8 @@
           <t>3741908774</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:35:44</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44159.64981481482</v>
       </c>
       <c r="I288" t="n">
         <v>1</v>
@@ -21464,10 +20906,8 @@
           <t>3741915041</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:34:57</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44159.64927083333</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
@@ -21531,10 +20971,8 @@
           <t>3741910439</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:34:41</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44159.64908564815</v>
       </c>
       <c r="I290" t="n">
         <v>26</v>
@@ -21606,10 +21044,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:33:50</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44159.64849537037</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21681,10 +21117,8 @@
           <t>3741899806</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:33:50</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44159.64849537037</v>
       </c>
       <c r="I292" t="n">
         <v>6</v>
@@ -21752,10 +21186,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:32:52</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44159.64782407408</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
@@ -21831,10 +21263,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:32:05</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44159.64728009259</v>
       </c>
       <c r="I294" t="n">
         <v>1</v>
@@ -21910,10 +21340,8 @@
           <t>3741897027</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:29:58</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44159.64581018518</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
@@ -21977,10 +21405,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:29:32</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44159.64550925926</v>
       </c>
       <c r="I296" t="n">
         <v>3</v>
@@ -22044,10 +21470,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:29:05</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44159.64519675926</v>
       </c>
       <c r="I297" t="n">
         <v>2</v>
@@ -22126,10 +21550,8 @@
           <t>3741881097</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:28:21</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44159.6446875</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
@@ -22201,10 +21623,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:28:10</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44159.64456018519</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
@@ -22275,10 +21695,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:27:21</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44159.64399305556</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
@@ -22350,10 +21768,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:25:47</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44159.64290509259</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
@@ -22417,10 +21833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:25:31</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44159.64271990741</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
@@ -22492,10 +21906,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:24:32</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44159.64203703704</v>
       </c>
       <c r="I303" t="n">
         <v>3</v>
@@ -22563,10 +21975,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:22:22</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44159.64053240741</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22634,10 +22044,8 @@
           <t>3741881097</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:21:26</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44159.63988425926</v>
       </c>
       <c r="I305" t="n">
         <v>1</v>
@@ -22697,10 +22105,8 @@
           <t>3741794454</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:19:23</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44159.63846064815</v>
       </c>
       <c r="I306" t="n">
         <v>3</v>
@@ -22768,10 +22174,8 @@
           <t>3741875678</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:18:11</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44159.63762731481</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -22847,10 +22251,8 @@
           <t>3741863960</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:15:51</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44159.63600694444</v>
       </c>
       <c r="I308" t="n">
         <v>5</v>
@@ -22922,10 +22324,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:15:24</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44159.63569444444</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
@@ -22993,10 +22393,8 @@
           <t>3741757515</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:14:45</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44159.63524305556</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
@@ -23064,10 +22462,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:14:43</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44159.63521990741</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
@@ -23143,10 +22539,8 @@
           <t>3741839738</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:13:08</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44159.63412037037</v>
       </c>
       <c r="I312" t="n">
         <v>4</v>
@@ -23214,10 +22608,8 @@
           <t>3741859207</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:12:34</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44159.63372685185</v>
       </c>
       <c r="I313" t="n">
         <v>13</v>
@@ -23293,10 +22685,8 @@
           <t>3741838666</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:11:48</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44159.63319444445</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23360,10 +22750,8 @@
           <t>3741860197</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:10:39</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44159.63239583333</v>
       </c>
       <c r="I315" t="n">
         <v>1</v>
@@ -23427,10 +22815,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:10:06</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44159.63201388889</v>
       </c>
       <c r="I316" t="n">
         <v>4</v>
@@ -23494,10 +22880,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:09:40</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44159.63171296296</v>
       </c>
       <c r="I317" t="n">
         <v>0</v>
@@ -23565,10 +22949,8 @@
           <t>3741839738</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:08:48</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44159.63111111111</v>
       </c>
       <c r="I318" t="n">
         <v>0</v>
@@ -23636,10 +23018,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:08:07</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44159.63063657407</v>
       </c>
       <c r="I319" t="n">
         <v>0</v>
@@ -23715,10 +23095,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:08:06</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44159.630625</v>
       </c>
       <c r="I320" t="n">
         <v>0</v>
@@ -23782,10 +23160,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:07:46</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44159.63039351852</v>
       </c>
       <c r="I321" t="n">
         <v>2</v>
@@ -23861,10 +23237,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:07:24</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44159.63013888889</v>
       </c>
       <c r="I322" t="n">
         <v>0</v>
@@ -23940,10 +23314,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:06:39</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44159.62961805556</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24007,10 +23379,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:06:18</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44159.629375</v>
       </c>
       <c r="I324" t="n">
         <v>1</v>
@@ -24082,10 +23452,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:06:18</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44159.629375</v>
       </c>
       <c r="I325" t="n">
         <v>0</v>
@@ -24153,10 +23521,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:05:44</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44159.62898148148</v>
       </c>
       <c r="I326" t="n">
         <v>0</v>
@@ -24224,10 +23590,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:03:26</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44159.62738425926</v>
       </c>
       <c r="I327" t="n">
         <v>0</v>
@@ -24303,10 +23667,8 @@
           <t>3741839738</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:03:09</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44159.6271875</v>
       </c>
       <c r="I328" t="n">
         <v>2</v>
@@ -24378,10 +23740,8 @@
           <t>3741839366</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:02:39</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44159.62684027778</v>
       </c>
       <c r="I329" t="n">
         <v>1</v>
@@ -24445,10 +23805,8 @@
           <t>3741842309</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:02:30</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44159.62673611111</v>
       </c>
       <c r="I330" t="n">
         <v>0</v>
@@ -24512,10 +23870,8 @@
           <t>3741840874</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:00:28</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44159.62532407408</v>
       </c>
       <c r="I331" t="n">
         <v>1</v>
@@ -24583,10 +23939,8 @@
           <t>3741837711</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2020-11-24 15:00:26</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44159.62530092592</v>
       </c>
       <c r="I332" t="n">
         <v>19</v>
@@ -24658,10 +24012,8 @@
           <t>3741727423</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:58:50</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44159.62418981481</v>
       </c>
       <c r="I333" t="n">
         <v>0</v>
@@ -24725,10 +24077,8 @@
           <t>3741829060</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:57:52</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44159.62351851852</v>
       </c>
       <c r="I334" t="n">
         <v>6</v>
@@ -24800,10 +24150,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:57:48</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44159.62347222222</v>
       </c>
       <c r="I335" t="n">
         <v>0</v>
@@ -24867,10 +24215,8 @@
           <t>3741830601</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:57:20</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44159.62314814814</v>
       </c>
       <c r="I336" t="n">
         <v>51</v>
@@ -24942,10 +24288,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:56:49</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44159.62278935185</v>
       </c>
       <c r="I337" t="n">
         <v>0</v>
@@ -25009,10 +24353,8 @@
           <t>3741830265</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:56:48</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44159.62277777777</v>
       </c>
       <c r="I338" t="n">
         <v>6</v>
@@ -25084,10 +24426,8 @@
           <t>3741818480</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:56:48</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44159.62277777777</v>
       </c>
       <c r="I339" t="n">
         <v>10</v>
@@ -25151,10 +24491,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:55:41</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44159.62200231481</v>
       </c>
       <c r="I340" t="n">
         <v>0</v>
@@ -25218,10 +24556,8 @@
           <t>3741819482</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:55:41</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44159.62200231481</v>
       </c>
       <c r="I341" t="n">
         <v>1</v>
@@ -25293,10 +24629,8 @@
           <t>3741827062</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:55:09</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44159.62163194444</v>
       </c>
       <c r="I342" t="n">
         <v>4</v>
@@ -25360,10 +24694,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:54:40</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44159.6212962963</v>
       </c>
       <c r="I343" t="n">
         <v>4</v>
@@ -25437,10 +24769,8 @@
           <t>3741818480</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:54:12</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44159.62097222222</v>
       </c>
       <c r="I344" t="n">
         <v>7</v>
@@ -25516,10 +24846,8 @@
           <t>3741826404</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:54:12</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44159.62097222222</v>
       </c>
       <c r="I345" t="n">
         <v>11</v>
@@ -25591,10 +24919,8 @@
           <t>3741822446</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:52:58</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44159.62011574074</v>
       </c>
       <c r="I346" t="n">
         <v>2</v>
@@ -25662,10 +24988,8 @@
           <t>3741788152</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:52:14</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44159.61960648148</v>
       </c>
       <c r="I347" t="n">
         <v>0</v>
@@ -25737,10 +25061,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:52:05</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44159.61950231482</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -25812,10 +25134,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:51:41</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44159.61922453704</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -25883,10 +25203,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:50:37</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44159.61848379629</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -25954,10 +25272,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:49:19</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44159.61758101852</v>
       </c>
       <c r="I351" t="n">
         <v>0</v>
@@ -26021,10 +25337,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:49:06</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44159.61743055555</v>
       </c>
       <c r="I352" t="n">
         <v>0</v>
@@ -26100,10 +25414,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:48:31</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44159.61702546296</v>
       </c>
       <c r="I353" t="n">
         <v>0</v>
@@ -26179,10 +25491,8 @@
           <t>3741809246</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:48:26</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44159.61696759259</v>
       </c>
       <c r="I354" t="n">
         <v>0</v>
@@ -26250,10 +25560,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:48:03</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44159.61670138889</v>
       </c>
       <c r="I355" t="n">
         <v>16</v>
@@ -26321,10 +25629,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:47:43</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44159.61646990741</v>
       </c>
       <c r="I356" t="n">
         <v>0</v>
@@ -26392,10 +25698,8 @@
           <t>3741811517</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:46:54</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44159.61590277778</v>
       </c>
       <c r="I357" t="n">
         <v>0</v>
@@ -26459,10 +25763,8 @@
           <t>3741807947</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:46:35</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44159.61568287037</v>
       </c>
       <c r="I358" t="n">
         <v>0</v>
@@ -26526,10 +25828,8 @@
           <t>3741811267</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:46:30</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44159.615625</v>
       </c>
       <c r="I359" t="n">
         <v>1</v>
@@ -26601,10 +25901,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:46:19</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44159.61549768518</v>
       </c>
       <c r="I360" t="n">
         <v>0</v>
@@ -26676,10 +25974,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:46:07</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44159.6153587963</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -26755,10 +26051,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:45:31</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44159.61494212963</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -26830,10 +26124,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:45:29</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44159.61491898148</v>
       </c>
       <c r="I363" t="n">
         <v>0</v>
@@ -26901,10 +26193,8 @@
           <t>3741806810</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:44:57</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44159.61454861111</v>
       </c>
       <c r="I364" t="n">
         <v>9</v>
@@ -26980,10 +26270,8 @@
           <t>3741799915</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:44:31</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44159.61424768518</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27051,10 +26339,8 @@
           <t>3741805843</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:43:30</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44159.61354166667</v>
       </c>
       <c r="I366" t="n">
         <v>2</v>
@@ -27130,10 +26416,8 @@
           <t>3741794454</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:41:35</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44159.61221064815</v>
       </c>
       <c r="I367" t="n">
         <v>1</v>
@@ -27203,10 +26487,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:41:23</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44159.61207175926</v>
       </c>
       <c r="I368" t="n">
         <v>1</v>
@@ -27278,10 +26560,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:40:34</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44159.61150462963</v>
       </c>
       <c r="I369" t="n">
         <v>12</v>
@@ -27357,10 +26637,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:40:16</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44159.61129629629</v>
       </c>
       <c r="I370" t="n">
         <v>0</v>
@@ -27432,10 +26710,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:40:00</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44159.61111111111</v>
       </c>
       <c r="I371" t="n">
         <v>0</v>
@@ -27499,10 +26775,8 @@
           <t>3741793000</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:39:32</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44159.61078703704</v>
       </c>
       <c r="I372" t="n">
         <v>7</v>
@@ -27578,10 +26852,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:39:31</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44159.61077546296</v>
       </c>
       <c r="I373" t="n">
         <v>1133</v>
@@ -27645,10 +26917,8 @@
           <t>3741788152</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:38:17</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44159.60991898148</v>
       </c>
       <c r="I374" t="n">
         <v>0</v>
@@ -27720,10 +26990,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:38:00</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44159.60972222222</v>
       </c>
       <c r="I375" t="n">
         <v>1</v>
@@ -27791,10 +27059,8 @@
           <t>3741795178</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:37:33</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44159.60940972222</v>
       </c>
       <c r="I376" t="n">
         <v>0</v>
@@ -27862,10 +27128,8 @@
           <t>3741795002</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:37:17</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44159.60922453704</v>
       </c>
       <c r="I377" t="n">
         <v>0</v>
@@ -27937,10 +27201,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:37:10</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44159.60914351852</v>
       </c>
       <c r="I378" t="n">
         <v>0</v>
@@ -28012,10 +27274,8 @@
           <t>3741786765</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:36:12</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44159.60847222222</v>
       </c>
       <c r="I379" t="n">
         <v>7</v>
@@ -28091,10 +27351,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:36:01</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44159.60834490741</v>
       </c>
       <c r="I380" t="n">
         <v>36</v>
@@ -28162,10 +27420,8 @@
           <t>3741779582</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:34:34</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44159.60733796296</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28241,10 +27497,8 @@
           <t>3741785663</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:34:25</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44159.6072337963</v>
       </c>
       <c r="I382" t="n">
         <v>0</v>
@@ -28320,10 +27574,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:33:53</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44159.60686342593</v>
       </c>
       <c r="I383" t="n">
         <v>0</v>
@@ -28387,10 +27639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:33:50</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44159.60682870371</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28450,10 +27700,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:33:26</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44159.60655092593</v>
       </c>
       <c r="I385" t="n">
         <v>0</v>
@@ -28521,10 +27769,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:32:41</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44159.60603009259</v>
       </c>
       <c r="I386" t="n">
         <v>0</v>
@@ -28600,10 +27846,8 @@
           <t>3741777669</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:31:58</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44159.6055324074</v>
       </c>
       <c r="I387" t="n">
         <v>0</v>
@@ -28679,10 +27923,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:31:38</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44159.60530092593</v>
       </c>
       <c r="I388" t="n">
         <v>0</v>
@@ -28750,10 +27992,8 @@
           <t>3741736660</t>
         </is>
       </c>
-      <c r="H389" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:31:19</t>
-        </is>
+      <c r="H389" s="1" t="n">
+        <v>44159.60508101852</v>
       </c>
       <c r="I389" t="n">
         <v>1</v>
@@ -28825,10 +28065,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H390" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:31:19</t>
-        </is>
+      <c r="H390" s="1" t="n">
+        <v>44159.60508101852</v>
       </c>
       <c r="I390" t="n">
         <v>5</v>
@@ -28902,10 +28140,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H391" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:31:13</t>
-        </is>
+      <c r="H391" s="1" t="n">
+        <v>44159.60501157407</v>
       </c>
       <c r="I391" t="n">
         <v>0</v>
@@ -28969,10 +28205,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H392" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:30:27</t>
-        </is>
+      <c r="H392" s="1" t="n">
+        <v>44159.60447916666</v>
       </c>
       <c r="I392" t="n">
         <v>0</v>
@@ -29036,10 +28270,8 @@
           <t>3741776483</t>
         </is>
       </c>
-      <c r="H393" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:30:27</t>
-        </is>
+      <c r="H393" s="1" t="n">
+        <v>44159.60447916666</v>
       </c>
       <c r="I393" t="n">
         <v>0</v>
@@ -29107,10 +28339,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H394" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:30:17</t>
-        </is>
+      <c r="H394" s="1" t="n">
+        <v>44159.60436342593</v>
       </c>
       <c r="I394" t="n">
         <v>1</v>
@@ -29186,10 +28416,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H395" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:30:06</t>
-        </is>
+      <c r="H395" s="1" t="n">
+        <v>44159.60423611111</v>
       </c>
       <c r="I395" t="n">
         <v>12</v>
@@ -29261,10 +28489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H396" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:29:28</t>
-        </is>
+      <c r="H396" s="1" t="n">
+        <v>44159.60379629629</v>
       </c>
       <c r="I396" t="n">
         <v>196</v>
@@ -29328,10 +28554,8 @@
           <t>3741775637</t>
         </is>
       </c>
-      <c r="H397" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:29:22</t>
-        </is>
+      <c r="H397" s="1" t="n">
+        <v>44159.60372685185</v>
       </c>
       <c r="I397" t="n">
         <v>16</v>
@@ -29407,10 +28631,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H398" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:28:54</t>
-        </is>
+      <c r="H398" s="1" t="n">
+        <v>44159.60340277778</v>
       </c>
       <c r="I398" t="n">
         <v>0</v>
@@ -29478,10 +28700,8 @@
           <t>3741775277</t>
         </is>
       </c>
-      <c r="H399" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:28:54</t>
-        </is>
+      <c r="H399" s="1" t="n">
+        <v>44159.60340277778</v>
       </c>
       <c r="I399" t="n">
         <v>0</v>
@@ -29557,10 +28777,8 @@
           <t>3741775073</t>
         </is>
       </c>
-      <c r="H400" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:28:38</t>
-        </is>
+      <c r="H400" s="1" t="n">
+        <v>44159.60321759259</v>
       </c>
       <c r="I400" t="n">
         <v>0</v>
@@ -29632,10 +28850,8 @@
           <t>3741771448</t>
         </is>
       </c>
-      <c r="H401" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:28:18</t>
-        </is>
+      <c r="H401" s="1" t="n">
+        <v>44159.60298611111</v>
       </c>
       <c r="I401" t="n">
         <v>4</v>
@@ -29703,10 +28919,8 @@
           <t>3741764538</t>
         </is>
       </c>
-      <c r="H402" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:27:53</t>
-        </is>
+      <c r="H402" s="1" t="n">
+        <v>44159.60269675926</v>
       </c>
       <c r="I402" t="n">
         <v>11</v>
@@ -29782,10 +28996,8 @@
           <t>3741770945</t>
         </is>
       </c>
-      <c r="H403" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:27:37</t>
-        </is>
+      <c r="H403" s="1" t="n">
+        <v>44159.60251157408</v>
       </c>
       <c r="I403" t="n">
         <v>0</v>
@@ -29861,10 +29073,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H404" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:26:17</t>
-        </is>
+      <c r="H404" s="1" t="n">
+        <v>44159.60158564815</v>
       </c>
       <c r="I404" t="n">
         <v>0</v>
@@ -29932,10 +29142,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H405" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:25:35</t>
-        </is>
+      <c r="H405" s="1" t="n">
+        <v>44159.60109953704</v>
       </c>
       <c r="I405" t="n">
         <v>1</v>
@@ -30011,10 +29219,8 @@
           <t>3741759500</t>
         </is>
       </c>
-      <c r="H406" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:25:33</t>
-        </is>
+      <c r="H406" s="1" t="n">
+        <v>44159.60107638889</v>
       </c>
       <c r="I406" t="n">
         <v>29</v>
@@ -30091,10 +29297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H407" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:24:21</t>
-        </is>
+      <c r="H407" s="1" t="n">
+        <v>44159.60024305555</v>
       </c>
       <c r="I407" t="n">
         <v>0</v>
@@ -30162,10 +29366,8 @@
           <t>3741761955</t>
         </is>
       </c>
-      <c r="H408" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:24:21</t>
-        </is>
+      <c r="H408" s="1" t="n">
+        <v>44159.60024305555</v>
       </c>
       <c r="I408" t="n">
         <v>0</v>
@@ -30241,10 +29443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H409" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:23:56</t>
-        </is>
+      <c r="H409" s="1" t="n">
+        <v>44159.59995370371</v>
       </c>
       <c r="I409" t="n">
         <v>0</v>
@@ -30320,10 +29520,8 @@
           <t>3741761400</t>
         </is>
       </c>
-      <c r="H410" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:23:36</t>
-        </is>
+      <c r="H410" s="1" t="n">
+        <v>44159.59972222222</v>
       </c>
       <c r="I410" t="n">
         <v>0</v>
@@ -30387,10 +29585,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H411" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:23:05</t>
-        </is>
+      <c r="H411" s="1" t="n">
+        <v>44159.59936342593</v>
       </c>
       <c r="I411" t="n">
         <v>0</v>
@@ -30454,10 +29650,8 @@
           <t>3741765112</t>
         </is>
       </c>
-      <c r="H412" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:22:49</t>
-        </is>
+      <c r="H412" s="1" t="n">
+        <v>44159.59917824074</v>
       </c>
       <c r="I412" t="n">
         <v>0</v>
@@ -30525,10 +29719,8 @@
           <t>3741757515</t>
         </is>
       </c>
-      <c r="H413" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:22:42</t>
-        </is>
+      <c r="H413" s="1" t="n">
+        <v>44159.59909722222</v>
       </c>
       <c r="I413" t="n">
         <v>0</v>
@@ -30604,10 +29796,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H414" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:22:42</t>
-        </is>
+      <c r="H414" s="1" t="n">
+        <v>44159.59909722222</v>
       </c>
       <c r="I414" t="n">
         <v>6</v>
@@ -30683,10 +29873,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H415" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:22:10</t>
-        </is>
+      <c r="H415" s="1" t="n">
+        <v>44159.59872685185</v>
       </c>
       <c r="I415" t="n">
         <v>1</v>
@@ -30758,10 +29946,8 @@
           <t>3741757132</t>
         </is>
       </c>
-      <c r="H416" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:22:09</t>
-        </is>
+      <c r="H416" s="1" t="n">
+        <v>44159.59871527777</v>
       </c>
       <c r="I416" t="n">
         <v>0</v>
@@ -30833,10 +30019,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H417" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:21:44</t>
-        </is>
+      <c r="H417" s="1" t="n">
+        <v>44159.59842592593</v>
       </c>
       <c r="I417" t="n">
         <v>1</v>
@@ -30912,10 +30096,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H418" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:20:51</t>
-        </is>
+      <c r="H418" s="1" t="n">
+        <v>44159.5978125</v>
       </c>
       <c r="I418" t="n">
         <v>1</v>
@@ -30991,10 +30173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H419" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:20:48</t>
-        </is>
+      <c r="H419" s="1" t="n">
+        <v>44159.59777777778</v>
       </c>
       <c r="I419" t="n">
         <v>0</v>
@@ -31062,10 +30242,8 @@
           <t>3741753640</t>
         </is>
       </c>
-      <c r="H420" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:20:39</t>
-        </is>
+      <c r="H420" s="1" t="n">
+        <v>44159.59767361111</v>
       </c>
       <c r="I420" t="n">
         <v>2</v>
@@ -31137,10 +30315,8 @@
           <t>3741749234</t>
         </is>
       </c>
-      <c r="H421" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:20:37</t>
-        </is>
+      <c r="H421" s="1" t="n">
+        <v>44159.59765046297</v>
       </c>
       <c r="I421" t="n">
         <v>72</v>
@@ -31212,10 +30388,8 @@
           <t>3741749229</t>
         </is>
       </c>
-      <c r="H422" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:20:36</t>
-        </is>
+      <c r="H422" s="1" t="n">
+        <v>44159.59763888889</v>
       </c>
       <c r="I422" t="n">
         <v>2</v>
@@ -31292,10 +30466,8 @@
           <t>3741749197</t>
         </is>
       </c>
-      <c r="H423" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:20:34</t>
-        </is>
+      <c r="H423" s="1" t="n">
+        <v>44159.59761574074</v>
       </c>
       <c r="I423" t="n">
         <v>0</v>
@@ -31359,10 +30531,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H424" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:19:29</t>
-        </is>
+      <c r="H424" s="1" t="n">
+        <v>44159.59686342593</v>
       </c>
       <c r="I424" t="n">
         <v>0</v>
@@ -31426,10 +30596,8 @@
           <t>3741747493</t>
         </is>
       </c>
-      <c r="H425" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:18:19</t>
-        </is>
+      <c r="H425" s="1" t="n">
+        <v>44159.59605324074</v>
       </c>
       <c r="I425" t="n">
         <v>16</v>
@@ -31493,10 +30661,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H426" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:18:14</t>
-        </is>
+      <c r="H426" s="1" t="n">
+        <v>44159.59599537037</v>
       </c>
       <c r="I426" t="n">
         <v>0</v>
@@ -31564,10 +30730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H427" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:17:47</t>
-        </is>
+      <c r="H427" s="1" t="n">
+        <v>44159.59568287037</v>
       </c>
       <c r="I427" t="n">
         <v>0</v>
@@ -31639,10 +30803,8 @@
           <t>3741743738</t>
         </is>
       </c>
-      <c r="H428" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:17:09</t>
-        </is>
+      <c r="H428" s="1" t="n">
+        <v>44159.59524305556</v>
       </c>
       <c r="I428" t="n">
         <v>2</v>
@@ -31722,10 +30884,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H429" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:17:03</t>
-        </is>
+      <c r="H429" s="1" t="n">
+        <v>44159.59517361111</v>
       </c>
       <c r="I429" t="n">
         <v>1</v>
@@ -31797,10 +30957,8 @@
           <t>3741750977</t>
         </is>
       </c>
-      <c r="H430" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:16:46</t>
-        </is>
+      <c r="H430" s="1" t="n">
+        <v>44159.59497685185</v>
       </c>
       <c r="I430" t="n">
         <v>1</v>
@@ -31872,10 +31030,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H431" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:16:40</t>
-        </is>
+      <c r="H431" s="1" t="n">
+        <v>44159.59490740741</v>
       </c>
       <c r="I431" t="n">
         <v>0</v>
@@ -31941,10 +31097,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H432" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:16:37</t>
-        </is>
+      <c r="H432" s="1" t="n">
+        <v>44159.59487268519</v>
       </c>
       <c r="I432" t="n">
         <v>0</v>
@@ -32016,10 +31170,8 @@
           <t>3741743263</t>
         </is>
       </c>
-      <c r="H433" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:16:28</t>
-        </is>
+      <c r="H433" s="1" t="n">
+        <v>44159.59476851852</v>
       </c>
       <c r="I433" t="n">
         <v>0</v>
@@ -32087,10 +31239,8 @@
           <t>3741745999</t>
         </is>
       </c>
-      <c r="H434" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:16:24</t>
-        </is>
+      <c r="H434" s="1" t="n">
+        <v>44159.59472222222</v>
       </c>
       <c r="I434" t="n">
         <v>2</v>
@@ -32154,10 +31304,8 @@
           <t>3741743147</t>
         </is>
       </c>
-      <c r="H435" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:16:17</t>
-        </is>
+      <c r="H435" s="1" t="n">
+        <v>44159.5946412037</v>
       </c>
       <c r="I435" t="n">
         <v>1</v>
@@ -32229,10 +31377,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H436" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:16:16</t>
-        </is>
+      <c r="H436" s="1" t="n">
+        <v>44159.59462962963</v>
       </c>
       <c r="I436" t="n">
         <v>10</v>
@@ -32304,10 +31450,8 @@
           <t>3741739906</t>
         </is>
       </c>
-      <c r="H437" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:14:56</t>
-        </is>
+      <c r="H437" s="1" t="n">
+        <v>44159.5937037037</v>
       </c>
       <c r="I437" t="n">
         <v>0</v>
@@ -32367,10 +31511,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H438" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:14:21</t>
-        </is>
+      <c r="H438" s="1" t="n">
+        <v>44159.59329861111</v>
       </c>
       <c r="I438" t="n">
         <v>22</v>
@@ -32442,10 +31584,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H439" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:14:04</t>
-        </is>
+      <c r="H439" s="1" t="n">
+        <v>44159.59310185185</v>
       </c>
       <c r="I439" t="n">
         <v>0</v>
@@ -32521,10 +31661,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H440" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:12:48</t>
-        </is>
+      <c r="H440" s="1" t="n">
+        <v>44159.59222222222</v>
       </c>
       <c r="I440" t="n">
         <v>5</v>
@@ -32592,10 +31730,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H441" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:12:41</t>
-        </is>
+      <c r="H441" s="1" t="n">
+        <v>44159.59214120371</v>
       </c>
       <c r="I441" t="n">
         <v>3</v>
@@ -32659,10 +31795,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H442" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:12:23</t>
-        </is>
+      <c r="H442" s="1" t="n">
+        <v>44159.59193287037</v>
       </c>
       <c r="I442" t="n">
         <v>0</v>
@@ -32730,10 +31864,8 @@
           <t>3741737475</t>
         </is>
       </c>
-      <c r="H443" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:11:51</t>
-        </is>
+      <c r="H443" s="1" t="n">
+        <v>44159.5915625</v>
       </c>
       <c r="I443" t="n">
         <v>18</v>
@@ -32797,10 +31929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H444" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:11:15</t>
-        </is>
+      <c r="H444" s="1" t="n">
+        <v>44159.59114583334</v>
       </c>
       <c r="I444" t="n">
         <v>0</v>
@@ -32872,10 +32002,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H445" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:11:04</t>
-        </is>
+      <c r="H445" s="1" t="n">
+        <v>44159.59101851852</v>
       </c>
       <c r="I445" t="n">
         <v>0</v>
@@ -32939,10 +32067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H446" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:10:54</t>
-        </is>
+      <c r="H446" s="1" t="n">
+        <v>44159.59090277777</v>
       </c>
       <c r="I446" t="n">
         <v>0</v>
@@ -33018,10 +32144,8 @@
           <t>3741736660</t>
         </is>
       </c>
-      <c r="H447" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:10:50</t>
-        </is>
+      <c r="H447" s="1" t="n">
+        <v>44159.59085648148</v>
       </c>
       <c r="I447" t="n">
         <v>26</v>
@@ -33089,10 +32213,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H448" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:10:44</t>
-        </is>
+      <c r="H448" s="1" t="n">
+        <v>44159.59078703704</v>
       </c>
       <c r="I448" t="n">
         <v>0</v>
@@ -33168,10 +32290,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H449" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:10:30</t>
-        </is>
+      <c r="H449" s="1" t="n">
+        <v>44159.590625</v>
       </c>
       <c r="I449" t="n">
         <v>10</v>
@@ -33243,10 +32363,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H450" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:09:56</t>
-        </is>
+      <c r="H450" s="1" t="n">
+        <v>44159.59023148148</v>
       </c>
       <c r="I450" t="n">
         <v>0</v>
@@ -33322,10 +32440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H451" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:09:47</t>
-        </is>
+      <c r="H451" s="1" t="n">
+        <v>44159.59012731481</v>
       </c>
       <c r="I451" t="n">
         <v>0</v>
@@ -33389,10 +32505,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H452" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:09:26</t>
-        </is>
+      <c r="H452" s="1" t="n">
+        <v>44159.58988425926</v>
       </c>
       <c r="I452" t="n">
         <v>0</v>
@@ -33456,10 +32570,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H453" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:09:26</t>
-        </is>
+      <c r="H453" s="1" t="n">
+        <v>44159.58988425926</v>
       </c>
       <c r="I453" t="n">
         <v>5</v>
@@ -33527,10 +32639,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H454" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:09:21</t>
-        </is>
+      <c r="H454" s="1" t="n">
+        <v>44159.58982638889</v>
       </c>
       <c r="I454" t="n">
         <v>17</v>
@@ -33590,10 +32700,8 @@
           <t>3741728048</t>
         </is>
       </c>
-      <c r="H455" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:09:05</t>
-        </is>
+      <c r="H455" s="1" t="n">
+        <v>44159.5896412037</v>
       </c>
       <c r="I455" t="n">
         <v>21</v>
@@ -33669,10 +32777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H456" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:09:02</t>
-        </is>
+      <c r="H456" s="1" t="n">
+        <v>44159.58960648148</v>
       </c>
       <c r="I456" t="n">
         <v>0</v>
@@ -33744,10 +32850,8 @@
           <t>3741718567</t>
         </is>
       </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:08:37</t>
-        </is>
+      <c r="H457" s="1" t="n">
+        <v>44159.58931712963</v>
       </c>
       <c r="I457" t="n">
         <v>9</v>
@@ -33815,10 +32919,8 @@
           <t>3741730063</t>
         </is>
       </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:08:20</t>
-        </is>
+      <c r="H458" s="1" t="n">
+        <v>44159.58912037037</v>
       </c>
       <c r="I458" t="n">
         <v>54</v>
@@ -33890,10 +32992,8 @@
           <t>3741727423</t>
         </is>
       </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:08:12</t>
-        </is>
+      <c r="H459" s="1" t="n">
+        <v>44159.58902777778</v>
       </c>
       <c r="I459" t="n">
         <v>18</v>
@@ -33953,10 +33053,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:08:09</t>
-        </is>
+      <c r="H460" s="1" t="n">
+        <v>44159.58899305556</v>
       </c>
       <c r="I460" t="n">
         <v>1</v>
@@ -34028,10 +33126,8 @@
           <t>3741724491</t>
         </is>
       </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:07:57</t>
-        </is>
+      <c r="H461" s="1" t="n">
+        <v>44159.58885416666</v>
       </c>
       <c r="I461" t="n">
         <v>357</v>
@@ -34095,10 +33191,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:07:18</t>
-        </is>
+      <c r="H462" s="1" t="n">
+        <v>44159.58840277778</v>
       </c>
       <c r="I462" t="n">
         <v>2</v>
@@ -34176,10 +33270,8 @@
           <t>3741718913</t>
         </is>
       </c>
-      <c r="H463" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:06:44</t>
-        </is>
+      <c r="H463" s="1" t="n">
+        <v>44159.58800925926</v>
       </c>
       <c r="I463" t="n">
         <v>28</v>
@@ -34248,10 +33340,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H464" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:06:23</t>
-        </is>
+      <c r="H464" s="1" t="n">
+        <v>44159.5877662037</v>
       </c>
       <c r="I464" t="n">
         <v>0</v>
@@ -34326,10 +33416,8 @@
           <t>3741718567</t>
         </is>
       </c>
-      <c r="H465" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:06:17</t>
-        </is>
+      <c r="H465" s="1" t="n">
+        <v>44159.58769675926</v>
       </c>
       <c r="I465" t="n">
         <v>3</v>
@@ -34401,10 +33489,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H466" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:06:02</t>
-        </is>
+      <c r="H466" s="1" t="n">
+        <v>44159.58752314815</v>
       </c>
       <c r="I466" t="n">
         <v>0</v>
@@ -34476,10 +33562,8 @@
           <t>3741722984</t>
         </is>
       </c>
-      <c r="H467" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:05:58</t>
-        </is>
+      <c r="H467" s="1" t="n">
+        <v>44159.58747685186</v>
       </c>
       <c r="I467" t="n">
         <v>59</v>
@@ -34555,10 +33639,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H468" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:05:31</t>
-        </is>
+      <c r="H468" s="1" t="n">
+        <v>44159.58716435185</v>
       </c>
       <c r="I468" t="n">
         <v>0</v>
@@ -34630,10 +33712,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H469" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:05:11</t>
-        </is>
+      <c r="H469" s="1" t="n">
+        <v>44159.58693287037</v>
       </c>
       <c r="I469" t="n">
         <v>0</v>
@@ -34693,10 +33773,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H470" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:04:52</t>
-        </is>
+      <c r="H470" s="1" t="n">
+        <v>44159.58671296296</v>
       </c>
       <c r="I470" t="n">
         <v>0</v>
@@ -34760,10 +33838,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H471" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:04:24</t>
-        </is>
+      <c r="H471" s="1" t="n">
+        <v>44159.58638888889</v>
       </c>
       <c r="I471" t="n">
         <v>22</v>
@@ -34832,10 +33908,8 @@
           <t>3741716973</t>
         </is>
       </c>
-      <c r="H472" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:04:03</t>
-        </is>
+      <c r="H472" s="1" t="n">
+        <v>44159.58614583333</v>
       </c>
       <c r="I472" t="n">
         <v>29</v>
@@ -34911,10 +33985,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H473" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:03:47</t>
-        </is>
+      <c r="H473" s="1" t="n">
+        <v>44159.58596064815</v>
       </c>
       <c r="I473" t="n">
         <v>2</v>
@@ -34982,10 +34054,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H474" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:03:32</t>
-        </is>
+      <c r="H474" s="1" t="n">
+        <v>44159.58578703704</v>
       </c>
       <c r="I474" t="n">
         <v>0</v>
@@ -35049,10 +34119,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H475" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:03:24</t>
-        </is>
+      <c r="H475" s="1" t="n">
+        <v>44159.58569444445</v>
       </c>
       <c r="I475" t="n">
         <v>0</v>
@@ -35116,10 +34184,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H476" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:03:21</t>
-        </is>
+      <c r="H476" s="1" t="n">
+        <v>44159.58565972222</v>
       </c>
       <c r="I476" t="n">
         <v>0</v>
@@ -35195,10 +34261,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H477" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:03:17</t>
-        </is>
+      <c r="H477" s="1" t="n">
+        <v>44159.58561342592</v>
       </c>
       <c r="I477" t="n">
         <v>0</v>
@@ -35262,10 +34326,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H478" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:03:14</t>
-        </is>
+      <c r="H478" s="1" t="n">
+        <v>44159.58557870371</v>
       </c>
       <c r="I478" t="n">
         <v>54</v>
@@ -35333,10 +34395,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H479" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:03:11</t>
-        </is>
+      <c r="H479" s="1" t="n">
+        <v>44159.58554398148</v>
       </c>
       <c r="I479" t="n">
         <v>0</v>
@@ -35404,10 +34464,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H480" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:02:49</t>
-        </is>
+      <c r="H480" s="1" t="n">
+        <v>44159.58528935185</v>
       </c>
       <c r="I480" t="n">
         <v>485</v>
@@ -35479,10 +34537,8 @@
           <t>3741713578</t>
         </is>
       </c>
-      <c r="H481" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:02:32</t>
-        </is>
+      <c r="H481" s="1" t="n">
+        <v>44159.58509259259</v>
       </c>
       <c r="I481" t="n">
         <v>1</v>
@@ -35546,10 +34602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H482" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:02:27</t>
-        </is>
+      <c r="H482" s="1" t="n">
+        <v>44159.58503472222</v>
       </c>
       <c r="I482" t="n">
         <v>0</v>
@@ -35625,10 +34679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H483" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:02:23</t>
-        </is>
+      <c r="H483" s="1" t="n">
+        <v>44159.58498842592</v>
       </c>
       <c r="I483" t="n">
         <v>0</v>
@@ -35692,10 +34744,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H484" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:02:12</t>
-        </is>
+      <c r="H484" s="1" t="n">
+        <v>44159.58486111111</v>
       </c>
       <c r="I484" t="n">
         <v>9</v>
@@ -35763,10 +34813,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H485" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:02:12</t>
-        </is>
+      <c r="H485" s="1" t="n">
+        <v>44159.58486111111</v>
       </c>
       <c r="I485" t="n">
         <v>1</v>
@@ -35830,10 +34878,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H486" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:46</t>
-        </is>
+      <c r="H486" s="1" t="n">
+        <v>44159.58456018518</v>
       </c>
       <c r="I486" t="n">
         <v>0</v>
@@ -35910,10 +34956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H487" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:44</t>
-        </is>
+      <c r="H487" s="1" t="n">
+        <v>44159.58453703704</v>
       </c>
       <c r="I487" t="n">
         <v>38</v>
@@ -35977,10 +35021,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H488" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:42</t>
-        </is>
+      <c r="H488" s="1" t="n">
+        <v>44159.58451388889</v>
       </c>
       <c r="I488" t="n">
         <v>0</v>
@@ -36044,10 +35086,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H489" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:35</t>
-        </is>
+      <c r="H489" s="1" t="n">
+        <v>44159.58443287037</v>
       </c>
       <c r="I489" t="n">
         <v>1003</v>
@@ -36115,10 +35155,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:29</t>
-        </is>
+      <c r="H490" s="1" t="n">
+        <v>44159.58436342593</v>
       </c>
       <c r="I490" t="n">
         <v>1</v>
@@ -36194,10 +35232,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:24</t>
-        </is>
+      <c r="H491" s="1" t="n">
+        <v>44159.58430555555</v>
       </c>
       <c r="I491" t="n">
         <v>0</v>
@@ -36261,10 +35297,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:19</t>
-        </is>
+      <c r="H492" s="1" t="n">
+        <v>44159.58424768518</v>
       </c>
       <c r="I492" t="n">
         <v>1</v>
@@ -36332,10 +35366,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:18</t>
-        </is>
+      <c r="H493" s="1" t="n">
+        <v>44159.58423611111</v>
       </c>
       <c r="I493" t="n">
         <v>0</v>
@@ -36411,10 +35443,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:16</t>
-        </is>
+      <c r="H494" s="1" t="n">
+        <v>44159.58421296296</v>
       </c>
       <c r="I494" t="n">
         <v>0</v>
@@ -36482,10 +35512,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:15</t>
-        </is>
+      <c r="H495" s="1" t="n">
+        <v>44159.58420138889</v>
       </c>
       <c r="I495" t="n">
         <v>2</v>
@@ -36549,10 +35577,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:14</t>
-        </is>
+      <c r="H496" s="1" t="n">
+        <v>44159.58418981481</v>
       </c>
       <c r="I496" t="n">
         <v>531</v>
@@ -36624,10 +35650,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H497" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:11</t>
-        </is>
+      <c r="H497" s="1" t="n">
+        <v>44159.58415509259</v>
       </c>
       <c r="I497" t="n">
         <v>101</v>
@@ -36699,10 +35723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H498" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:08</t>
-        </is>
+      <c r="H498" s="1" t="n">
+        <v>44159.58412037037</v>
       </c>
       <c r="I498" t="n">
         <v>1</v>
@@ -36778,10 +35800,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H499" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:01:06</t>
-        </is>
+      <c r="H499" s="1" t="n">
+        <v>44159.58409722222</v>
       </c>
       <c r="I499" t="n">
         <v>0</v>
@@ -36849,10 +35869,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H500" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:58</t>
-        </is>
+      <c r="H500" s="1" t="n">
+        <v>44159.58400462963</v>
       </c>
       <c r="I500" t="n">
         <v>0</v>
@@ -36920,10 +35938,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H501" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:57</t>
-        </is>
+      <c r="H501" s="1" t="n">
+        <v>44159.58399305555</v>
       </c>
       <c r="I501" t="n">
         <v>0</v>
@@ -36991,10 +36007,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H502" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:53</t>
-        </is>
+      <c r="H502" s="1" t="n">
+        <v>44159.58394675926</v>
       </c>
       <c r="I502" t="n">
         <v>1</v>
@@ -37062,10 +36076,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H503" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:51</t>
-        </is>
+      <c r="H503" s="1" t="n">
+        <v>44159.58392361111</v>
       </c>
       <c r="I503" t="n">
         <v>84</v>
@@ -37129,10 +36141,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H504" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:49</t>
-        </is>
+      <c r="H504" s="1" t="n">
+        <v>44159.58390046296</v>
       </c>
       <c r="I504" t="n">
         <v>0</v>
@@ -37204,10 +36214,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H505" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:49</t>
-        </is>
+      <c r="H505" s="1" t="n">
+        <v>44159.58390046296</v>
       </c>
       <c r="I505" t="n">
         <v>0</v>
@@ -37283,10 +36291,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H506" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:47</t>
-        </is>
+      <c r="H506" s="1" t="n">
+        <v>44159.58387731481</v>
       </c>
       <c r="I506" t="n">
         <v>11</v>
@@ -37354,10 +36360,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H507" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:45</t>
-        </is>
+      <c r="H507" s="1" t="n">
+        <v>44159.58385416667</v>
       </c>
       <c r="I507" t="n">
         <v>0</v>
@@ -37433,10 +36437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H508" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:45</t>
-        </is>
+      <c r="H508" s="1" t="n">
+        <v>44159.58385416667</v>
       </c>
       <c r="I508" t="n">
         <v>0</v>
@@ -37504,10 +36506,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H509" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:42</t>
-        </is>
+      <c r="H509" s="1" t="n">
+        <v>44159.58381944444</v>
       </c>
       <c r="I509" t="n">
         <v>0</v>
@@ -37579,10 +36579,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H510" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:40</t>
-        </is>
+      <c r="H510" s="1" t="n">
+        <v>44159.5837962963</v>
       </c>
       <c r="I510" t="n">
         <v>0</v>
@@ -37642,10 +36640,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H511" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:40</t>
-        </is>
+      <c r="H511" s="1" t="n">
+        <v>44159.5837962963</v>
       </c>
       <c r="I511" t="n">
         <v>43</v>
@@ -37713,10 +36709,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H512" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:40</t>
-        </is>
+      <c r="H512" s="1" t="n">
+        <v>44159.5837962963</v>
       </c>
       <c r="I512" t="n">
         <v>0</v>
@@ -37780,10 +36774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H513" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:32</t>
-        </is>
+      <c r="H513" s="1" t="n">
+        <v>44159.58370370371</v>
       </c>
       <c r="I513" t="n">
         <v>332</v>
@@ -37847,10 +36839,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H514" t="inlineStr">
-        <is>
-          <t>2020-11-24 14:00:31</t>
-        </is>
+      <c r="H514" s="1" t="n">
+        <v>44159.58369212963</v>
       </c>
       <c r="I514" t="n">
         <v>0</v>
